--- a/EASE/EASE(S)-OneWay.xlsx
+++ b/EASE/EASE(S)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC0627C-19FC-49BC-94A3-73BBAD47A9C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{19F3DAC4-84CA-4CFD-9E52-AA9BB5546396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{088BE4FF-348D-46AF-A73E-58F02AD2D800}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="795" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="131">
   <si>
     <t>Group</t>
   </si>
@@ -418,19 +420,10 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>This module uses summary data (not raw data) as input.</t>
   </si>
   <si>
     <t>Input Method: Summary Statistics</t>
-  </si>
-  <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
   </si>
   <si>
     <t>How to Cite</t>
@@ -440,6 +433,12 @@
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
+  </si>
+  <si>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -8804,23 +8803,23 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="10" width="4.5703125" style="29" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="29"/>
-    <col min="18" max="19" width="4.5703125" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="29"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="10" width="4.578125" style="29" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="29"/>
+    <col min="18" max="19" width="4.578125" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="146"/>
     </row>
-    <row r="2" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="146"/>
       <c r="B2" s="208" t="s">
         <v>123</v>
@@ -8843,7 +8842,7 @@
       <c r="P2" s="209"/>
       <c r="Q2" s="209"/>
     </row>
-    <row r="3" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="146"/>
       <c r="B3" s="210" t="s">
         <v>36</v>
@@ -8857,7 +8856,7 @@
       <c r="I3" s="207"/>
       <c r="J3" s="207"/>
       <c r="K3" s="210" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L3" s="210"/>
       <c r="M3" s="210"/>
@@ -8866,10 +8865,10 @@
       <c r="P3" s="210"/>
       <c r="Q3" s="210"/>
     </row>
-    <row r="4" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="151"/>
       <c r="B4" s="210" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="210"/>
       <c r="D4" s="210"/>
@@ -8880,7 +8879,7 @@
       <c r="I4" s="207"/>
       <c r="J4" s="207"/>
       <c r="K4" s="211" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L4" s="210"/>
       <c r="M4" s="210"/>
@@ -8889,7 +8888,7 @@
       <c r="P4" s="210"/>
       <c r="Q4" s="210"/>
     </row>
-    <row r="5" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="146"/>
       <c r="I5" s="148"/>
       <c r="J5" s="148"/>
@@ -8901,7 +8900,7 @@
       <c r="P5" s="148"/>
       <c r="Q5" s="148"/>
     </row>
-    <row r="6" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="143" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="146"/>
       <c r="B6" s="6" t="s">
         <v>87</v>
@@ -8910,7 +8909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="29" t="s">
         <v>100</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="29" t="s">
         <v>103</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29" t="s">
         <v>108</v>
       </c>
@@ -8934,12 +8933,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="6" t="s">
         <v>89</v>
       </c>
@@ -8947,10 +8946,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29" t="s">
         <v>9</v>
       </c>
@@ -8958,16 +8957,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="29" t="s">
         <v>101</v>
@@ -8976,7 +8975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="29" t="s">
         <v>102</v>
@@ -8985,7 +8984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
@@ -8994,7 +8993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="26" t="s">
         <v>93</v>
@@ -9011,7 +9010,7 @@
       <c r="O22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="26" t="s">
         <v>94</v>
@@ -9028,7 +9027,7 @@
       <c r="O23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
         <v>98</v>
@@ -9045,7 +9044,7 @@
       <c r="O24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
         <v>122</v>
@@ -9054,7 +9053,7 @@
         <v>107</v>
       </c>
       <c r="K25" s="206" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9062,7 +9061,7 @@
       <c r="O25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="26" t="s">
         <v>99</v>
@@ -9079,7 +9078,7 @@
       <c r="O26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="29"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -9088,13 +9087,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="6" t="s">
         <v>120</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9103,7 +9102,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="28"/>
       <c r="L29"/>
@@ -9113,7 +9112,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="28" t="s">
         <v>95</v>
@@ -9128,13 +9127,13 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="28" t="s">
         <v>96</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9143,13 +9142,13 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29"/>
       <c r="B32" s="28" t="s">
         <v>97</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9158,7 +9157,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9199,29 +9198,29 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="42"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="13" width="11.140625" style="196" customWidth="1"/>
-    <col min="14" max="17" width="11.140625" style="5"/>
-    <col min="18" max="18" width="4.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="42"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="11.15625" style="196" customWidth="1"/>
+    <col min="14" max="17" width="11.15625" style="5"/>
+    <col min="18" max="18" width="4.578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="42"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="214" t="s">
         <v>31</v>
       </c>
@@ -9250,7 +9249,7 @@
       <c r="Y2" s="214"/>
       <c r="Z2" s="214"/>
     </row>
-    <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9260,7 +9259,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9284,7 +9283,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
@@ -9301,7 +9300,7 @@
       <c r="Y5" s="52"/>
       <c r="Z5" s="52"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="218" t="s">
         <v>29</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="221"/>
       <c r="C7" s="221"/>
       <c r="D7" s="221"/>
@@ -9402,7 +9401,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="222"/>
       <c r="C8" s="222"/>
       <c r="D8" s="222"/>
@@ -9451,7 +9450,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -9500,7 +9499,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="220" t="s">
         <v>30</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="215"/>
       <c r="C11" s="215"/>
       <c r="D11" s="215"/>
@@ -9606,7 +9605,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="216"/>
       <c r="C12" s="216"/>
       <c r="D12" s="216"/>
@@ -9630,7 +9629,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="216"/>
       <c r="C13" s="216"/>
       <c r="D13" s="216"/>
@@ -9649,7 +9648,7 @@
       <c r="Y13" s="52"/>
       <c r="Z13" s="52"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="217"/>
       <c r="C14" s="217"/>
       <c r="D14" s="217"/>
@@ -9666,7 +9665,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
@@ -9685,7 +9684,7 @@
       <c r="Y19" s="97"/>
       <c r="Z19" s="107"/>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -9702,7 +9701,7 @@
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="218" t="s">
         <v>28</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="212"/>
       <c r="C22" s="212"/>
       <c r="D22" s="212"/>
@@ -9756,7 +9755,7 @@
       <c r="Y22" s="108"/>
       <c r="Z22" s="108"/>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="213"/>
       <c r="C23" s="213"/>
       <c r="D23" s="213"/>
@@ -9775,7 +9774,7 @@
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -9794,7 +9793,7 @@
       </c>
       <c r="Z24" s="109"/>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="96" t="str">
         <f>IF(B22="","",B22)</f>
         <v/>
@@ -9820,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="212"/>
       <c r="C26" s="212"/>
       <c r="D26" s="212"/>
@@ -9837,7 +9836,7 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="223"/>
       <c r="C27" s="223"/>
       <c r="D27" s="223"/>
@@ -9856,7 +9855,7 @@
       <c r="Y27" s="52"/>
       <c r="Z27" s="52"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="223"/>
       <c r="C28" s="223"/>
       <c r="D28" s="223"/>
@@ -9873,7 +9872,7 @@
       <c r="Y28" s="52"/>
       <c r="Z28" s="52"/>
     </row>
-    <row r="29" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B29" s="213"/>
       <c r="C29" s="213"/>
       <c r="D29" s="213"/>
@@ -9891,7 +9890,7 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="26"/>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -9908,7 +9907,7 @@
       <c r="Y30" s="56"/>
       <c r="Z30" s="26"/>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="E31" s="45"/>
@@ -9936,7 +9935,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
       <c r="E32" s="45"/>
@@ -9970,7 +9969,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
       <c r="E33" s="45"/>
@@ -9995,7 +9994,7 @@
       <c r="Y33" s="82"/>
       <c r="Z33" s="83"/>
     </row>
-    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="E34" s="45"/>
@@ -10020,7 +10019,7 @@
       <c r="Y34" s="84"/>
       <c r="Z34" s="86"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
       <c r="E35" s="45"/>
@@ -10034,39 +10033,39 @@
       <c r="Y35" s="57"/>
       <c r="Z35" s="57"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
     </row>
@@ -10111,26 +10110,26 @@
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="117" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="40"/>
-    <col min="9" max="9" width="4.5703125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="117" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="40"/>
-    <col min="18" max="18" width="4.5703125" style="117" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="40" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="117" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="40"/>
+    <col min="9" max="9" width="4.578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="117" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="40"/>
+    <col min="18" max="18" width="4.578125" style="117" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="40" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="40" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="40" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="40"/>
+    <col min="27" max="27" width="4.578125" style="40" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="145" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="144"/>
       <c r="J1" s="144"/>
       <c r="R1" s="144"/>
     </row>
-    <row r="2" spans="1:26" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="144"/>
       <c r="B2" s="224" t="s">
         <v>40</v>
@@ -10163,7 +10162,7 @@
       <c r="Y2" s="224"/>
       <c r="Z2" s="224"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="116"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -10182,7 +10181,7 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="6" t="s">
         <v>113</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="116"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -10230,7 +10229,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="116"/>
       <c r="B6" s="156" t="s">
         <v>0</v>
@@ -10272,7 +10271,7 @@
       </c>
       <c r="Q6" s="225"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="116"/>
       <c r="B7" s="158" t="str">
         <f>IF(Data!T7="","",Data!T7)</f>
@@ -10332,7 +10331,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="116"/>
       <c r="B8" s="83" t="str">
         <f>IF(Data!T8="","",Data!T8)</f>
@@ -10392,7 +10391,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="116"/>
       <c r="B9" s="83" t="str">
         <f>IF(Data!T9="","",Data!T9)</f>
@@ -10452,7 +10451,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="116"/>
       <c r="B10" s="83" t="str">
         <f>IF(Data!T10="","",Data!T10)</f>
@@ -10512,7 +10511,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="116"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
@@ -10531,13 +10530,13 @@
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="116"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="116"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="7" t="s">
         <v>115</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -10580,7 +10579,7 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="27"/>
       <c r="B16" s="140" t="s">
         <v>78</v>
@@ -10629,7 +10628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27"/>
       <c r="B17" s="47" t="s">
         <v>0</v>
@@ -10698,7 +10697,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27"/>
       <c r="B18" s="46">
         <v>1.1000000000000001</v>
@@ -10772,7 +10771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27"/>
       <c r="B19" s="46">
         <v>1.1000000000000001</v>
@@ -10846,7 +10845,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="27"/>
       <c r="B20" s="46">
         <v>1.1000000000000001</v>
@@ -10920,7 +10919,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="27"/>
       <c r="B21" s="46">
         <v>2.1</v>
@@ -10973,7 +10972,7 @@
       <c r="Y21" s="136"/>
       <c r="Z21" s="136"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="27"/>
       <c r="B22" s="46">
         <v>2.1</v>
@@ -11040,7 +11039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27"/>
       <c r="B23" s="46">
         <v>2.1</v>
@@ -11114,7 +11113,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27"/>
       <c r="B24" s="46">
         <v>3.1</v>
@@ -11188,7 +11187,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27"/>
       <c r="B25" s="46">
         <v>3.1</v>
@@ -11262,7 +11261,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="27"/>
       <c r="B26" s="46">
         <v>3.1</v>
@@ -11336,7 +11335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="27"/>
       <c r="B27" s="46">
         <v>4.0999999999999996</v>
@@ -11389,7 +11388,7 @@
       <c r="Y27" s="132"/>
       <c r="Z27" s="132"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="27"/>
       <c r="B28" s="47">
         <v>4.0999999999999996</v>
@@ -11450,7 +11449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27"/>
       <c r="B29" s="47">
         <v>4.0999999999999996</v>
@@ -11516,7 +11515,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27"/>
       <c r="B30" s="87"/>
       <c r="C30" s="87"/>
@@ -11555,7 +11554,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27"/>
       <c r="B31" s="87"/>
       <c r="C31" s="87"/>
@@ -11594,7 +11593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="27"/>
       <c r="B32" s="87"/>
       <c r="C32" s="87"/>
@@ -11632,7 +11631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="133"/>
       <c r="B33" s="87"/>
       <c r="C33" s="87"/>
@@ -11649,7 +11648,7 @@
       <c r="Y33" s="132"/>
       <c r="Z33" s="132"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="116"/>
       <c r="B34" s="87"/>
       <c r="C34" s="28"/>
@@ -11660,7 +11659,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="26"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="116"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -11670,7 +11669,7 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="58" t="s">
         <v>114</v>
       </c>
@@ -11686,7 +11685,7 @@
       <c r="P37" s="116"/>
       <c r="Q37" s="116"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I38" s="26"/>
       <c r="J38" s="116"/>
       <c r="K38" s="116"/>
@@ -11697,7 +11696,7 @@
       <c r="P38" s="116"/>
       <c r="Q38" s="116"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="155" t="s">
         <v>0</v>
       </c>
@@ -11733,7 +11732,7 @@
       <c r="P39" s="116"/>
       <c r="Q39" s="116"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="158" t="str">
         <f>B7</f>
         <v/>
@@ -11775,7 +11774,7 @@
       <c r="U40" s="117"/>
       <c r="V40" s="117"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="83" t="str">
         <f>B8</f>
         <v/>
@@ -11817,7 +11816,7 @@
       <c r="U41" s="117"/>
       <c r="V41" s="117"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="83" t="str">
         <f>B9</f>
         <v/>
@@ -11859,7 +11858,7 @@
       <c r="U42" s="117"/>
       <c r="V42" s="117"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="159" t="str">
         <f>B10</f>
         <v/>
@@ -11901,7 +11900,7 @@
       <c r="U43" s="117"/>
       <c r="V43" s="117"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="132"/>
       <c r="C44" s="57"/>
       <c r="D44" s="132"/>
@@ -11949,21 +11948,21 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="52" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="52"/>
-    <col min="9" max="10" width="4.5703125" style="52" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="52"/>
-    <col min="18" max="18" width="4.5703125" style="52" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="52" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="52" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="52"/>
+    <col min="9" max="10" width="4.578125" style="52" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="52"/>
+    <col min="18" max="18" width="4.578125" style="52" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="52" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="52"/>
+    <col min="27" max="27" width="4.578125" style="52" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="224" t="s">
         <v>75</v>
       </c>
@@ -11992,7 +11991,7 @@
       <c r="Y2" s="224"/>
       <c r="Z2" s="224"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="58" t="s">
         <v>113</v>
       </c>
@@ -12025,7 +12024,7 @@
       <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
@@ -12043,7 +12042,7 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="155" t="s">
         <v>0</v>
       </c>
@@ -12093,7 +12092,7 @@
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="103"/>
       <c r="C7" s="67" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$U$7:$X$10,2,FALSE))</f>
@@ -12157,7 +12156,7 @@
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="175"/>
       <c r="C8" s="71" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$U$7:$X$10,2,FALSE))</f>
@@ -12221,7 +12220,7 @@
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="101"/>
       <c r="C9" s="101"/>
       <c r="D9" s="101"/>
@@ -12246,7 +12245,7 @@
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="186" t="s">
         <v>112</v>
       </c>
@@ -12294,7 +12293,7 @@
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="165" t="s">
         <v>69</v>
       </c>
@@ -12357,7 +12356,7 @@
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -12382,7 +12381,7 @@
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="117"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
@@ -12393,7 +12392,7 @@
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="58" t="s">
         <v>115</v>
       </c>
@@ -12423,7 +12422,7 @@
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -12441,7 +12440,7 @@
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="153" t="s">
         <v>78</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="41" t="s">
         <v>0</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12641,7 +12640,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12778,7 +12777,7 @@
       <c r="Y20" s="136"/>
       <c r="Z20" s="136"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="41">
         <v>2.1</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="41">
         <v>2.1</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="41">
         <v>2.1</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="41">
         <v>2.75</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="41">
         <v>2.75</v>
       </c>
@@ -13139,7 +13138,7 @@
       <c r="Y25" s="132"/>
       <c r="Z25" s="132"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="41">
         <v>2.75</v>
       </c>
@@ -13205,7 +13204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="87"/>
       <c r="C27" s="105"/>
       <c r="D27" s="105"/>
@@ -13260,7 +13259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="87"/>
       <c r="C28" s="87"/>
       <c r="D28" s="105"/>
@@ -13317,7 +13316,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="87"/>
       <c r="C29" s="87"/>
       <c r="D29" s="105"/>
@@ -13356,7 +13355,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="171" t="s">
         <v>79</v>
       </c>
@@ -13388,7 +13387,7 @@
       <c r="Y30" s="132"/>
       <c r="Z30" s="132"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -13445,7 +13444,7 @@
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="41">
         <v>3.15</v>
       </c>
@@ -13500,7 +13499,7 @@
       </c>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="41"/>
       <c r="C33" s="105"/>
       <c r="D33" s="41"/>
@@ -13517,7 +13516,7 @@
       <c r="Q33" s="87"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="41"/>
       <c r="C34" s="105"/>
       <c r="D34" s="41"/>
@@ -13550,7 +13549,7 @@
       <c r="Y34" s="40"/>
       <c r="Z34" s="40"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41"/>
       <c r="C35" s="105"/>
       <c r="D35" s="41"/>
@@ -13583,7 +13582,7 @@
       <c r="Y35" s="40"/>
       <c r="Z35" s="40"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41"/>
       <c r="C36" s="105"/>
       <c r="D36" s="41"/>
@@ -13607,7 +13606,7 @@
       <c r="Y36" s="40"/>
       <c r="Z36" s="40"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="58" t="s">
         <v>114</v>
       </c>
@@ -13630,7 +13629,7 @@
       <c r="Y37" s="117"/>
       <c r="Z37" s="117"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="116"/>
       <c r="L38" s="116"/>
       <c r="M38" s="116"/>
@@ -13648,7 +13647,7 @@
       <c r="Y38" s="117"/>
       <c r="Z38" s="117"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="155" t="s">
         <v>0</v>
       </c>
@@ -13691,7 +13690,7 @@
       <c r="Y39" s="117"/>
       <c r="Z39" s="117"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="67" t="str">
         <f>IF(B7="","",B7)</f>
         <v/>
@@ -13739,7 +13738,7 @@
       <c r="Y40" s="117"/>
       <c r="Z40" s="117"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="111" t="str">
         <f>IF(B8="","",B8)</f>
         <v/>
@@ -13787,7 +13786,7 @@
       <c r="Y41" s="117"/>
       <c r="Z41" s="117"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="38"/>
       <c r="C42" s="101"/>
       <c r="D42" s="38"/>
@@ -13812,7 +13811,7 @@
       <c r="Y42" s="117"/>
       <c r="Z42" s="117"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="187" t="s">
         <v>112</v>
       </c>
@@ -13855,7 +13854,7 @@
       <c r="Y43" s="117"/>
       <c r="Z43" s="117"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="165" t="s">
         <v>69</v>
       </c>
@@ -13901,7 +13900,7 @@
       <c r="Y44" s="117"/>
       <c r="Z44" s="117"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -13956,21 +13955,21 @@
       <selection activeCell="L40" sqref="L40:L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="9" width="4.5703125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="32" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="32" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="29" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="9" width="4.578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="32" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="4.578125" style="32" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="32" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="32"/>
+    <col min="27" max="27" width="4.578125" style="32" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="143"/>
       <c r="B1" s="143"/>
       <c r="C1" s="143"/>
@@ -13981,7 +13980,7 @@
       <c r="H1" s="143"/>
       <c r="I1" s="143"/>
     </row>
-    <row r="2" spans="1:27" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="224" t="s">
         <v>43</v>
@@ -14014,7 +14013,7 @@
       <c r="Y2" s="224"/>
       <c r="Z2" s="224"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -14024,7 +14023,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="7" t="s">
         <v>113</v>
       </c>
@@ -14058,7 +14057,7 @@
       <c r="Z4" s="52"/>
       <c r="AA4" s="52"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -14077,7 +14076,7 @@
       <c r="Z5" s="52"/>
       <c r="AA5" s="52"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
@@ -14143,7 +14142,7 @@
       </c>
       <c r="AA6" s="52"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="20" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v/>
@@ -14231,7 +14230,7 @@
       </c>
       <c r="AA7" s="52"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="22" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v/>
@@ -14320,7 +14319,7 @@
       </c>
       <c r="AA8" s="52"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="22" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v/>
@@ -14409,7 +14408,7 @@
       </c>
       <c r="AA9" s="52"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="22" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v/>
@@ -14498,7 +14497,7 @@
       </c>
       <c r="AA10" s="52"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="22" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v/>
@@ -14587,7 +14586,7 @@
       </c>
       <c r="AA11" s="52"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="24" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -14676,7 +14675,7 @@
       </c>
       <c r="AA12" s="52"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="38"/>
       <c r="D13" s="2"/>
@@ -14702,7 +14701,7 @@
       <c r="Z13" s="38"/>
       <c r="AA13" s="52"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="7" t="s">
         <v>115</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -14729,7 +14728,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="140" t="s">
         <v>78</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="47" t="s">
         <v>0</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="49">
         <v>1.1000000000000001</v>
       </c>
@@ -14911,7 +14910,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="49">
         <v>1.1000000000000001</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="49">
         <v>1.1000000000000001</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="49">
         <v>2.1</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="49">
         <v>2.1</v>
       </c>
@@ -15196,7 +15195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="49">
         <v>2.1</v>
       </c>
@@ -15246,7 +15245,7 @@
       <c r="Y23" s="101"/>
       <c r="Z23" s="101"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="49">
         <v>3.1</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="49">
         <v>3.1</v>
       </c>
@@ -15381,7 +15380,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="49">
         <v>3.1</v>
       </c>
@@ -15452,7 +15451,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="49">
         <v>4.0999999999999996</v>
       </c>
@@ -15523,7 +15522,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15665,7 +15664,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="49">
         <v>5.0999999999999996</v>
       </c>
@@ -15736,7 +15735,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="49">
         <v>5.0999999999999996</v>
       </c>
@@ -15786,7 +15785,7 @@
       <c r="Y31" s="52"/>
       <c r="Z31" s="52"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="49">
         <v>5.0999999999999996</v>
       </c>
@@ -15843,7 +15842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="49">
         <v>6.1</v>
       </c>
@@ -15906,7 +15905,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="49">
         <v>6.1</v>
       </c>
@@ -15969,7 +15968,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="49">
         <v>6.1</v>
       </c>
@@ -16032,7 +16031,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -16061,7 +16060,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="58" t="s">
         <v>114</v>
       </c>
@@ -16102,7 +16101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -16139,7 +16138,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="90" t="s">
         <v>4</v>
       </c>
@@ -16179,7 +16178,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="20" t="str">
         <f t="shared" ref="B40:B45" si="33">B7</f>
         <v/>
@@ -16217,7 +16216,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="22" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16255,7 +16254,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="22" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16293,7 +16292,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="22" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16331,7 +16330,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="22" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16369,7 +16368,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16407,7 +16406,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="38"/>
       <c r="C46" s="2"/>
       <c r="D46" s="38"/>
@@ -16424,7 +16423,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="33"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -16434,7 +16433,7 @@
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="52"/>
     </row>
   </sheetData>

--- a/EASE/EASE(S)-OneWay.xlsx
+++ b/EASE/EASE(S)-OneWay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{19F3DAC4-84CA-4CFD-9E52-AA9BB5546396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{088BE4FF-348D-46AF-A73E-58F02AD2D800}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="114_{A20865A6-9300-4990-B397-5A911DB3B1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E72B29BD-2C0F-42BD-9ACB-411E636E9FB4}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,10 +426,10 @@
     <t>Input Method: Summary Statistics</t>
   </si>
   <si>
-    <t>How to Cite</t>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
+    <t>How to Cite</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
@@ -1416,11 +1416,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1431,7 +1435,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1450,10 +1454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1532,9 +1532,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2494,9 +2494,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3381,6 +3381,12 @@
               <c:f>OneComp!$B$40:$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
                 </c:pt>
@@ -3568,7 +3574,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3592,7 +3600,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3616,7 +3626,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3640,7 +3652,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3664,7 +3678,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3688,7 +3704,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -3825,6 +3843,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B54-48E7-B1A3-3FFDB5D5F70E}"/>
             </c:ext>
@@ -4299,7 +4358,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4336,7 +4397,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4361,7 +4424,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4427,6 +4492,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7ACD-4577-9B6C-3FD6C97D6069}"/>
             </c:ext>
@@ -4600,10 +4673,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
@@ -4768,7 +4841,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4792,7 +4867,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4816,7 +4893,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4840,7 +4919,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4864,7 +4945,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4888,7 +4971,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4912,7 +4997,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5049,6 +5136,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5516,7 +5644,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5553,7 +5683,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5578,7 +5710,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5644,6 +5778,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5819,9 +5961,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7003,9 +7145,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8249,16 +8391,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152397</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>188592</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8289,14 +8431,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160017</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>13335</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5712</xdr:rowOff>
+      <xdr:rowOff>47622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8803,7 +8945,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9093,7 +9235,7 @@
         <v>120</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9133,7 +9275,7 @@
         <v>96</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9179,7 +9321,7 @@
   <hyperlinks>
     <hyperlink ref="K26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{969A59FD-93F5-4003-A30C-DD1D6ECE75D8}"/>
+    <hyperlink ref="K25" r:id="rId3" xr:uid="{A280B9B9-7897-4495-83E3-4A6DC1C0DFE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9194,8 +9336,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showRuler="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9221,33 +9363,33 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="K2" s="214" t="s">
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="K2" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="T2" s="214" t="s">
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="T2" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
     </row>
     <row r="3" spans="2:26" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
@@ -9301,15 +9443,15 @@
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
       <c r="K6" s="195" t="s">
         <v>60</v>
       </c>
@@ -9353,13 +9495,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="221"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
       <c r="K7" s="160" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v/>
@@ -9402,13 +9544,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
       <c r="K8" s="161" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v/>
@@ -9500,15 +9642,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="221" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="220"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
       <c r="K10" s="161" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9550,13 +9692,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="215"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
       <c r="K11" s="72" t="s">
         <v>49</v>
       </c>
@@ -9606,13 +9748,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="216"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -9630,13 +9772,13 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="216"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
       <c r="S13" s="52"/>
       <c r="T13" s="52" t="s">
         <v>61</v>
@@ -9649,13 +9791,13 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="217"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="217"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
@@ -9702,16 +9844,16 @@
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219" t="s">
+      <c r="C21" s="219"/>
+      <c r="D21" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
       <c r="H21" s="10" t="s">
         <v>27</v>
       </c>
@@ -9737,12 +9879,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="212"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
       <c r="H22" s="103"/>
       <c r="S22" s="33"/>
       <c r="T22" s="160"/>
@@ -9756,12 +9898,12 @@
       <c r="Z22" s="108"/>
     </row>
     <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="104"/>
       <c r="S23" s="33"/>
       <c r="T23" s="161"/>
@@ -9820,12 +9962,12 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="212"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
       <c r="H26" s="103"/>
       <c r="S26" s="33"/>
       <c r="T26" s="38"/>
@@ -9837,12 +9979,12 @@
       <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
       <c r="H27" s="51"/>
       <c r="S27" s="52"/>
       <c r="T27" s="52" t="s">
@@ -9856,12 +9998,12 @@
       <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
       <c r="H28" s="51"/>
       <c r="S28" s="52"/>
       <c r="T28"/>
@@ -9873,12 +10015,12 @@
       <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="104"/>
       <c r="T29" s="59" t="s">
         <v>52</v>
@@ -10072,14 +10214,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10093,6 +10227,14 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10106,7 +10248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
@@ -11944,7 +12086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -12093,7 +12235,9 @@
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="103"/>
+      <c r="B7" s="103">
+        <v>2</v>
+      </c>
       <c r="C7" s="67" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$U$7:$X$10,2,FALSE))</f>
         <v/>
@@ -12120,7 +12264,7 @@
       </c>
       <c r="K7" s="158">
         <f>B7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="78" t="str">
         <f>IFERROR((D7-C40)/E7,"")</f>
@@ -12157,7 +12301,9 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="175"/>
+      <c r="B8" s="175">
+        <v>1</v>
+      </c>
       <c r="C8" s="71" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$U$7:$X$10,2,FALSE))</f>
         <v/>
@@ -12184,7 +12330,7 @@
       </c>
       <c r="K8" s="159">
         <f>B8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="129" t="str">
         <f>IFERROR((D8-C41)/E8,"")</f>
@@ -13691,9 +13837,9 @@
       <c r="Z39" s="117"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="67" t="str">
+      <c r="B40" s="67">
         <f>IF(B7="","",B7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C40" s="168"/>
       <c r="D40" s="34" t="str">
@@ -13718,7 +13864,7 @@
       </c>
       <c r="K40" s="67">
         <f>K7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="192" t="s">
         <v>117</v>
@@ -13739,9 +13885,9 @@
       <c r="Z40" s="117"/>
     </row>
     <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="111" t="str">
+      <c r="B41" s="111">
         <f>IF(B8="","",B8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C41" s="169"/>
       <c r="D41" s="62" t="str">
@@ -13766,7 +13912,7 @@
       </c>
       <c r="K41" s="111">
         <f>K8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="193" t="s">
         <v>117</v>
@@ -13951,8 +14097,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40:L42"/>
+    <sheetView showRuler="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/EASE/EASE(S)-OneWay.xlsx
+++ b/EASE/EASE(S)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="114_{A20865A6-9300-4990-B397-5A911DB3B1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E72B29BD-2C0F-42BD-9ACB-411E636E9FB4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{572A0031-AB04-4129-987A-7AFBF5D417D4}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,9 +405,6 @@
     <t>EASE also includes null hypothesis significance tests.</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1416,15 +1416,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1454,6 +1450,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1532,9 +1532,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2494,9 +2494,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3478,7 +3478,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3502,7 +3504,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3526,7 +3530,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3550,7 +3556,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3575,7 +3583,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -3601,7 +3609,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -3627,7 +3635,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -3653,7 +3661,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -3679,7 +3687,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -3705,7 +3713,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-97B6-4CF0-9A3E-619917FF6CA1}"/>
@@ -3730,7 +3738,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -3843,47 +3853,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$H$18:$H$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B54-48E7-B1A3-3FFDB5D5F70E}"/>
             </c:ext>
@@ -4359,7 +4328,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -4398,7 +4367,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -4425,7 +4394,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-7ACD-4577-9B6C-3FD6C97D6069}"/>
@@ -4492,14 +4461,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$D$24:$D$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7ACD-4577-9B6C-3FD6C97D6069}"/>
             </c:ext>
@@ -4769,7 +4730,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4793,7 +4756,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4817,7 +4782,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4842,7 +4809,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -4868,7 +4835,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -4894,7 +4861,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -4920,7 +4887,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -4946,7 +4913,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -4972,7 +4939,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -4998,7 +4965,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -5023,7 +4990,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5136,47 +5105,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5645,7 +5573,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -5684,7 +5612,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -5711,7 +5639,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FD7C-4E91-9B2D-29D3A1F40736}"/>
@@ -5778,14 +5706,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$M$24:$M$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5961,9 +5881,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7145,9 +7065,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8945,7 +8865,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8964,7 +8884,7 @@
     <row r="2" spans="1:17" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="146"/>
       <c r="B2" s="208" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="208"/>
       <c r="D2" s="208"/>
@@ -8998,7 +8918,7 @@
       <c r="I3" s="207"/>
       <c r="J3" s="207"/>
       <c r="K3" s="210" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="210"/>
       <c r="M3" s="210"/>
@@ -9010,7 +8930,7 @@
     <row r="4" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="151"/>
       <c r="B4" s="210" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="210"/>
       <c r="D4" s="210"/>
@@ -9021,7 +8941,7 @@
       <c r="I4" s="207"/>
       <c r="J4" s="207"/>
       <c r="K4" s="211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" s="210"/>
       <c r="M4" s="210"/>
@@ -9102,7 +9022,7 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>46</v>
@@ -9189,13 +9109,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>107</v>
       </c>
       <c r="K25" s="206" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9212,7 +9132,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="206" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9232,10 +9152,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9275,7 +9195,7 @@
         <v>96</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9290,7 +9210,7 @@
         <v>97</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9363,33 +9283,33 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="K2" s="215" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="T2" s="215" t="s">
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="K2" s="214" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="T2" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
     </row>
     <row r="3" spans="2:26" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
@@ -9443,15 +9363,15 @@
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
       <c r="K6" s="195" t="s">
         <v>60</v>
       </c>
@@ -9495,13 +9415,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="222"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
       <c r="K7" s="160" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v/>
@@ -9544,13 +9464,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
       <c r="K8" s="161" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v/>
@@ -9642,15 +9562,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
       <c r="K10" s="161" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9692,13 +9612,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
+      <c r="B11" s="215"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
       <c r="K11" s="72" t="s">
         <v>49</v>
       </c>
@@ -9748,13 +9668,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="217"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="216"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -9772,13 +9692,13 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="217"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
       <c r="S13" s="52"/>
       <c r="T13" s="52" t="s">
         <v>61</v>
@@ -9791,13 +9711,13 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="217"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="217"/>
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
@@ -9844,16 +9764,16 @@
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="219" t="s">
+      <c r="B21" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220" t="s">
+      <c r="C21" s="218"/>
+      <c r="D21" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
       <c r="H21" s="10" t="s">
         <v>27</v>
       </c>
@@ -9879,12 +9799,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
       <c r="H22" s="103"/>
       <c r="S22" s="33"/>
       <c r="T22" s="160"/>
@@ -9898,12 +9818,12 @@
       <c r="Z22" s="108"/>
     </row>
     <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="212"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="212"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
       <c r="H23" s="104"/>
       <c r="S23" s="33"/>
       <c r="T23" s="161"/>
@@ -9962,12 +9882,12 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="103"/>
       <c r="S26" s="33"/>
       <c r="T26" s="38"/>
@@ -9979,12 +9899,12 @@
       <c r="Z26" s="38"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
       <c r="H27" s="51"/>
       <c r="S27" s="52"/>
       <c r="T27" s="52" t="s">
@@ -9998,12 +9918,12 @@
       <c r="Z27" s="52"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
+      <c r="B28" s="223"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
       <c r="H28" s="51"/>
       <c r="S28" s="52"/>
       <c r="T28"/>
@@ -10015,12 +9935,12 @@
       <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="212"/>
-      <c r="C29" s="212"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="212"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="212"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
       <c r="H29" s="104"/>
       <c r="T29" s="59" t="s">
         <v>52</v>
@@ -10214,6 +10134,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10227,14 +10155,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(S)-OneWay.xlsx
+++ b/EASE/EASE(S)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B901BAD1-AB6A-4E96-87DA-EECC4BD817E9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20BBED62-E8BB-4C63-A160-29EBDADD150E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="SPSS">[2]Data!#REF!</definedName>
     <definedName name="SPSS2">[3]Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -420,16 +420,10 @@
     <t>Input Method: Summary Statistics</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
     <t>How to Cite</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
@@ -438,7 +432,13 @@
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1164,15 +1164,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1202,6 +1198,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8610,7 +8610,7 @@
   <dimension ref="B2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8658,7 +8658,7 @@
       <c r="I3" s="92"/>
       <c r="J3" s="92"/>
       <c r="K3" s="125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="125"/>
@@ -8678,7 +8678,7 @@
       <c r="G4" s="125"/>
       <c r="H4" s="125"/>
       <c r="K4" s="126" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="125"/>
       <c r="M4" s="125"/>
@@ -8831,7 +8831,7 @@
         <v>106</v>
       </c>
       <c r="K25" s="122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8847,7 +8847,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="122" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8868,7 +8868,7 @@
         <v>118</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -8891,7 +8891,7 @@
         <v>94</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8905,7 +8905,7 @@
         <v>95</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8919,7 +8919,7 @@
         <v>96</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8987,33 +8987,33 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="K2" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -9041,15 +9041,15 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
       <c r="K6" s="50" t="s">
         <v>59</v>
       </c>
@@ -9092,13 +9092,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
       <c r="K7" s="52" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v/>
@@ -9140,13 +9140,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
       <c r="K8" s="54" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v/>
@@ -9236,15 +9236,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
       <c r="K10" s="54" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9286,13 +9286,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
       <c r="K11" s="56" t="s">
         <v>48</v>
       </c>
@@ -9341,13 +9341,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -9364,25 +9364,25 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
       <c r="T13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
     </row>
     <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
@@ -9408,16 +9408,16 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135" t="s">
+      <c r="C21" s="133"/>
+      <c r="D21" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
       <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
@@ -9442,12 +9442,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="74"/>
       <c r="T22" s="52"/>
       <c r="U22" s="51"/>
@@ -9460,12 +9460,12 @@
       <c r="Z22" s="77"/>
     </row>
     <row r="23" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="75"/>
       <c r="T23" s="54"/>
       <c r="U23" s="53"/>
@@ -9521,12 +9521,12 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
       <c r="H26" s="74"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -9537,33 +9537,33 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="40"/>
       <c r="T27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="40"/>
     </row>
     <row r="29" spans="2:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="75"/>
       <c r="T29" s="46" t="s">
         <v>51</v>
@@ -9757,6 +9757,14 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9770,14 +9778,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9806,33 +9806,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="K2" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11617,33 +11617,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="K2" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13387,34 +13387,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
       <c r="I2"/>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="T2" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-OneWay.xlsx
+++ b/EASE/EASE(S)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20BBED62-E8BB-4C63-A160-29EBDADD150E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F55CADC-EBE9-4999-A35F-59BC9D088A09}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -1164,11 +1164,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1198,10 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8284,9 +8284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8324,9 +8324,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8359,26 +8359,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8411,26 +8394,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8937,7 +8903,7 @@
       <c r="Q33"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -8987,33 +8953,33 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="K2" s="129" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="2:26" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -9041,15 +9007,15 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
       <c r="K6" s="50" t="s">
         <v>59</v>
       </c>
@@ -9092,13 +9058,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
       <c r="K7" s="52" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v/>
@@ -9140,13 +9106,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
       <c r="K8" s="54" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v/>
@@ -9236,15 +9202,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
       <c r="K10" s="54" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9286,13 +9252,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
       <c r="K11" s="56" t="s">
         <v>48</v>
       </c>
@@ -9341,13 +9307,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -9364,25 +9330,25 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
       <c r="T13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
@@ -9408,16 +9374,16 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134" t="s">
+      <c r="C21" s="134"/>
+      <c r="D21" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
       <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
@@ -9442,12 +9408,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="74"/>
       <c r="T22" s="52"/>
       <c r="U22" s="51"/>
@@ -9460,12 +9426,12 @@
       <c r="Z22" s="77"/>
     </row>
     <row r="23" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
       <c r="H23" s="75"/>
       <c r="T23" s="54"/>
       <c r="U23" s="53"/>
@@ -9521,12 +9487,12 @@
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="74"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
@@ -9537,33 +9503,33 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="40"/>
       <c r="T27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
       <c r="H28" s="40"/>
     </row>
     <row r="29" spans="2:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
       <c r="H29" s="75"/>
       <c r="T29" s="46" t="s">
         <v>51</v>
@@ -9757,14 +9723,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9778,6 +9736,14 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9806,33 +9772,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="K2" s="129" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11617,33 +11583,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="K2" s="129" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13387,34 +13353,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
       <c r="I2"/>
-      <c r="K2" s="129" t="s">
+      <c r="K2" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="T2" s="129" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-OneWay.xlsx
+++ b/EASE/EASE(S)-OneWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F55CADC-EBE9-4999-A35F-59BC9D088A09}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C3F0D2-44FD-4518-AC99-DF14B048C212}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,19 +426,19 @@
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
-  </si>
-  <si>
-    <t>Version: 2.210601</t>
   </si>
   <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -8283,6 +8283,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8576,7 +8580,7 @@
   <dimension ref="B2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8624,7 +8628,7 @@
       <c r="I3" s="92"/>
       <c r="J3" s="92"/>
       <c r="K3" s="125" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L3" s="125"/>
       <c r="M3" s="125"/>
@@ -8644,7 +8648,7 @@
       <c r="G4" s="125"/>
       <c r="H4" s="125"/>
       <c r="K4" s="126" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L4" s="125"/>
       <c r="M4" s="125"/>
@@ -8813,7 +8817,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8857,7 +8861,7 @@
         <v>94</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8871,7 +8875,7 @@
         <v>95</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8885,7 +8889,7 @@
         <v>96</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8914,8 +8918,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{A280B9B9-7897-4495-83E3-4A6DC1C0DFE2}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{A280B9B9-7897-4495-83E3-4A6DC1C0DFE2}"/>
+    <hyperlink ref="K4" r:id="rId3" display="https://cwendorf.github.io/BASE/EASE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/EASE/EASE(S)-OneWay.xlsx
+++ b/EASE/EASE(S)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C3F0D2-44FD-4518-AC99-DF14B048C212}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{9A500B6A-B4FE-4D0C-BBAA-10B62DF49F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05AAB24-ACDB-49BD-B6FB-B2BEEA9E40B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8283,10 +8283,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
